--- a/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.0_Pro_Python.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_zero_shot_Gemini_1.0_Pro_Python.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACB5F15-0486-4D7C-80F2-7EE70A46A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A2EFA-0C88-456A-9C4E-428AEFC9C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{755A4FE2-4614-44E3-B65D-AC120F2AD10C}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_zero_shot_Gemini_1.0_Pro_Py" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="308">
   <si>
     <t>File Name</t>
   </si>
@@ -3015,6 +3028,536 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_breadth_first_search.py FFFFF                                                                                                                                                                                                [100%]
+=============================================================================================================== FAILURES ===============================================================================================================
+________________________________________________________________________________________________________________ test1 _________________________________________________________________________________________________________________
+    def test1():
+        """Case 1: Strongly connected graph
+        Output: Path found!
+        """
+        station1 = Node("Westminster")
+        station2 = Node("Waterloo", None, [station1])
+        station3 = Node("Trafalgar Square", None, [station1, station2])
+        station4 = Node("Canary Wharf", None, [station2, station3])
+        station5 = Node("London Bridge", None, [station4, station3])
+        station6 = Node("Tottenham Court Road", None, [station5, station4])
+&gt;       path_found = breadth_first_search(station6, station1)
+test_breadth_first_search.py:37:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+startnode = &lt;node.Node object at 0x0000025119A6B0B0&gt;, goalnode = &lt;node.Node object at 0x0000025119A6B230&gt;
+    def breadth_first_search(startnode, goalnode):
+        queue = Queue()
+        queue.append(startnode)
+        nodesseen = set()
+        nodesseen.add(startnode)
+&gt;       while not queue.empty():
+E       AttributeError: 'collections.deque' object has no attribute 'empty'
+test_breadth_first_search.py:13: AttributeError
+________________________________________________________________________________________________________________ test2 _________________________________________________________________________________________________________________ 
+    def test2():
+        """Case 2: Branching graph
+        Output: Path found!
+        """
+        nodef = Node("F")
+        nodee = Node("E")
+        noded = Node("D")
+        nodec = Node("C", None, [nodef])
+        nodeb = Node("B", None, [nodee])
+        nodea = Node("A", None, [nodeb, nodec, noded])
+&gt;       path_found = breadth_first_search(nodea, nodee)
+test_breadth_first_search.py:54:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+startnode = &lt;node.Node object at 0x0000025119A6B590&gt;, goalnode = &lt;node.Node object at 0x0000025119A6B2C0&gt;
+    def breadth_first_search(startnode, goalnode):
+        queue = Queue()
+        queue.append(startnode)
+        nodesseen = set()
+        nodesseen.add(startnode)
+&gt;       while not queue.empty():
+E       AttributeError: 'collections.deque' object has no attribute 'empty'
+test_breadth_first_search.py:13: AttributeError
+________________________________________________________________________________________________________________ test3 _________________________________________________________________________________________________________________ 
+    def test3():
+        """Case 3: Two unconnected nodes in graph
+        Output: Path not found
+        """
+        nodef = Node("F")
+        nodee = Node("E")
+&gt;       path_found = breadth_first_search(nodef, nodee)
+test_breadth_first_search.py:67:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+startnode = &lt;node.Node object at 0x0000025119A6BEF0&gt;, goalnode = &lt;node.Node object at 0x0000025119A6BF50&gt;
+    def breadth_first_search(startnode, goalnode):
+        queue = Queue()
+        queue.append(startnode)
+        nodesseen = set()
+        nodesseen.add(startnode)
+&gt;       while not queue.empty():
+E       AttributeError: 'collections.deque' object has no attribute 'empty'
+test_breadth_first_search.py:13: AttributeError
+________________________________________________________________________________________________________________ test4 _________________________________________________________________________________________________________________ 
+    def test4():
+        """Case 4: One node graph
+        Output: Path found!
+        """
+        nodef = Node("F")
+&gt;       path_found = breadth_first_search(nodef, nodef)
+test_breadth_first_search.py:79:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+startnode = &lt;node.Node object at 0x0000025119AD8950&gt;, goalnode = &lt;node.Node object at 0x0000025119AD8950&gt;
+    def breadth_first_search(startnode, goalnode):
+        queue = Queue()
+        queue.append(startnode)
+        nodesseen = set()
+        nodesseen.add(startnode)
+&gt;       while not queue.empty():
+E       AttributeError: 'collections.deque' object has no attribute 'empty'
+test_breadth_first_search.py:13: AttributeError
+________________________________________________________________________________________________________________ test5 _________________________________________________________________________________________________________________ 
+    def test5():
+        """Case 5: Graph with cycles
+        Output: Path found!
+        """
+        nodef = Node("F")
+        nodee = Node("E")
+        noded = Node("D")
+        nodec = Node("C", None, [nodef])
+        nodeb = Node("B", None, [nodee])
+        nodea = Node("A", None, [nodeb, nodec, noded])
+        nodee.successors = [nodea]
+&gt;       path_found = breadth_first_search(nodea, nodef)
+test_breadth_first_search.py:98:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+startnode = &lt;node.Node object at 0x0000025119AD8D70&gt;, goalnode = &lt;node.Node object at 0x0000025119AD9280&gt;
+    def breadth_first_search(startnode, goalnode):
+        queue = Queue()
+        queue.append(startnode)
+        nodesseen = set()
+        nodesseen.add(startnode)
+&gt;       while not queue.empty():
+E       AttributeError: 'collections.deque' object has no attribute 'empty'
+test_breadth_first_search.py:13: AttributeError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_breadth_first_search.py::test1 - AttributeError: 'collections.deque' object has no attribute 'empty'
+FAILED test_breadth_first_search.py::test2 - AttributeError: 'collections.deque' object has no attribute 'empty'
+FAILED test_breadth_first_search.py::test3 - AttributeError: 'collections.deque' object has no attribute 'empty'
+FAILED test_breadth_first_search.py::test4 - AttributeError: 'collections.deque' object has no attribute 'empty'
+FAILED test_breadth_first_search.py::test5 - AttributeError: 'collections.deque' object has no attribute 'empty'
+========================================================================================================== 5 failed in 0.30s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>Test Cases (For responses that are not identical to the correct code)</t>
+  </si>
+  <si>
+    <t>collected 4 items
+test_kheapsort.py FFFF                                                                                                                                                                                                            [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+________________________________________________________________________________________________ test_kheapsort[input_data0-expected0] _________________________________________________________________________________________________ 
+input_data = [[1, 2, 3, 4, 5], 0], expected = [1, 2, 3, 4, 5]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kheapsort(input_data, expected):
+&gt;       assert list(kheapsort(*input_data)) == expected
+test_kheapsort.py:21:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+arr = [1, 2, 3, 4, 5], k = 0
+    def kheapsort(arr, k):
+        import heapq
+&gt;       heapq.heapify(heap)  # Move this line outside the for loop (change)
+E       NameError: name 'heap' is not defined
+test_kheapsort.py:7: NameError
+________________________________________________________________________________________________ test_kheapsort[input_data1-expected1] _________________________________________________________________________________________________ 
+input_data = [[3, 2, 1, 5, 4], 2], expected = [1, 2, 3, 4, 5]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kheapsort(input_data, expected):
+&gt;       assert list(kheapsort(*input_data)) == expected
+test_kheapsort.py:21:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+arr = [3, 2, 1, 5, 4], k = 2
+    def kheapsort(arr, k):
+        import heapq
+&gt;       heapq.heapify(heap)  # Move this line outside the for loop (change)
+E       NameError: name 'heap' is not defined
+test_kheapsort.py:7: NameError
+________________________________________________________________________________________________ test_kheapsort[input_data2-expected2] _________________________________________________________________________________________________ 
+input_data = [[5, 4, 3, 2, 1], 4], expected = [1, 2, 3, 4, 5]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kheapsort(input_data, expected):
+&gt;       assert list(kheapsort(*input_data)) == expected
+test_kheapsort.py:21:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+arr = [5, 4, 3, 2, 1], k = 4
+    def kheapsort(arr, k):
+        import heapq
+&gt;       heapq.heapify(heap)  # Move this line outside the for loop (change)
+E       NameError: name 'heap' is not defined
+test_kheapsort.py:7: NameError
+________________________________________________________________________________________________ test_kheapsort[input_data3-expected3] _________________________________________________________________________________________________ 
+input_data = [[3, 12, 5, 1, 6], 3], expected = [1, 3, 5, 6, 12]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kheapsort(input_data, expected):
+&gt;       assert list(kheapsort(*input_data)) == expected
+test_kheapsort.py:21:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+arr = [3, 12, 5, 1, 6], k = 3
+    def kheapsort(arr, k):
+        import heapq
+&gt;       heapq.heapify(heap)  # Move this line outside the for loop (change)
+E       NameError: name 'heap' is not defined
+test_kheapsort.py:7: NameError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_kheapsort.py::test_kheapsort[input_data0-expected0] - NameError: name 'heap' is not defined
+FAILED test_kheapsort.py::test_kheapsort[input_data1-expected1] - NameError: name 'heap' is not defined
+FAILED test_kheapsort.py::test_kheapsort[input_data2-expected2] - NameError: name 'heap' is not defined
+FAILED test_kheapsort.py::test_kheapsort[input_data3-expected3] - NameError: name 'heap' is not defined
+========================================================================================================== 4 failed in 0.20s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 7 items
+test_kth.py ..F....                                                                                                                                                                                                               [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+_______________________________________________________________________________________________________ test_kth[input_data2-3] ________________________________________________________________________________________________________ 
+input_data = [[3, 6, 7, 1, 6, 3, ...], 2], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_kth(input_data, expected):
+&gt;       assert kth(*input_data) == expected
+test_kth.py:25:
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+test_kth.py:17: in kth
+    return kth(above, k - num_lessoreq) # Change made here
+test_kth.py:13: in kth
+    return kth(below, k)
+_ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _ _  
+arr = [], k = -1
+    def kth(arr, k):
+&gt;       pivot = arr[0]
+E       IndexError: list index out of range
+test_kth.py:5: IndexError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_kth.py::test_kth[input_data2-3] - IndexError: list index out of range
+===================================================================================================== 1 failed, 6 passed in 0.18s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 9 items
+test_lcs_length.py FF.FFFFFF                                                                                                                                                                                                      [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+____________________________________________________________________________________________________ test_lcs_length[input_data0-2] ____________________________________________________________________________________________________ 
+input_data = ['witch', 'sandwich'], expected = 2
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 2
+E        +  where 1 = lcs_length(*['witch', 'sandwich'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data1-4] ____________________________________________________________________________________________________ 
+input_data = ['meow', 'homeowner'], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 4
+E        +  where 1 = lcs_length(*['meow', 'homeowner'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data3-3] ____________________________________________________________________________________________________ 
+input_data = ['fun', 'function'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 3
+E        +  where 1 = lcs_length(*['fun', 'function'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data4-3] ____________________________________________________________________________________________________ 
+input_data = ['cyborg', 'cyber'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 3
+E        +  where 1 = lcs_length(*['cyborg', 'cyber'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data5-7] ____________________________________________________________________________________________________ 
+input_data = ['physics', 'physics'], expected = 7
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 7
+E        +  where 1 = lcs_length(*['physics', 'physics'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data6-6] ____________________________________________________________________________________________________ 
+input_data = ['space age', 'pace a'], expected = 6
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 6
+E        +  where 1 = lcs_length(*['space age', 'pace a'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data7-3] ____________________________________________________________________________________________________ 
+input_data = ['flippy', 'floppy'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 2 == 3
+E        +  where 2 = lcs_length(*['flippy', 'floppy'])
+test_lcs_length.py:22: AssertionError
+____________________________________________________________________________________________________ test_lcs_length[input_data8-3] ____________________________________________________________________________________________________
+input_data = ['acbdegcedbg', 'begcfeubk'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_lcs_length(input_data, expected):
+&gt;       assert lcs_length(*input_data) == expected
+E       AssertionError: assert 1 == 3
+E        +  where 1 = lcs_length(*['acbdegcedbg', 'begcfeubk'])
+test_lcs_length.py:22: AssertionError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_lcs_length.py::test_lcs_length[input_data0-2] - AssertionError: assert 1 == 2
+FAILED test_lcs_length.py::test_lcs_length[input_data1-4] - AssertionError: assert 1 == 4
+FAILED test_lcs_length.py::test_lcs_length[input_data3-3] - AssertionError: assert 1 == 3
+FAILED test_lcs_length.py::test_lcs_length[input_data4-3] - AssertionError: assert 1 == 3
+FAILED test_lcs_length.py::test_lcs_length[input_data5-7] - AssertionError: assert 1 == 7
+FAILED test_lcs_length.py::test_lcs_length[input_data6-6] - AssertionError: assert 1 == 6
+FAILED test_lcs_length.py::test_lcs_length[input_data7-3] - AssertionError: assert 2 == 3
+FAILED test_lcs_length.py::test_lcs_length[input_data8-3] - AssertionError: assert 1 == 3
+===================================================================================================== 8 failed, 1 passed in 0.20s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 7 items
+test_levenshtein.py FFFsF.F                                                                                                                                                                                                       [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+___________________________________________________________________________________________________ test_levenshtein[input_data0-3] ____________________________________________________________________________________________________ 
+input_data = ['electron', 'neutron'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 8 == 3
+E        +  where 8 = levenshtein(*['electron', 'neutron'])
+test_levenshtein.py:30: AssertionError
+___________________________________________________________________________________________________ test_levenshtein[input_data1-3] ____________________________________________________________________________________________________ 
+input_data = ['kitten', 'sitting'], expected = 3
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 7 == 3
+E        +  where 7 = levenshtein(*['kitten', 'sitting'])
+test_levenshtein.py:30: AssertionError
+___________________________________________________________________________________________________ test_levenshtein[input_data2-8] ____________________________________________________________________________________________________ 
+input_data = ['rosettacode', 'raisethysword'], expected = 8
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 13 == 8
+E        +  where 13 = levenshtein(*['rosettacode', 'raisethysword'])
+test_levenshtein.py:30: AssertionError
+___________________________________________________________________________________________________ test_levenshtein[input_data4-2] ____________________________________________________________________________________________________ 
+input_data = ['abcdefg', 'gabcdef'], expected = 2
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 7 == 2
+E        +  where 7 = levenshtein(*['abcdefg', 'gabcdef'])
+test_levenshtein.py:30: AssertionError
+___________________________________________________________________________________________________ test_levenshtein[input_data6-4] ____________________________________________________________________________________________________ 
+input_data = ['hello', 'olleh'], expected = 4
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_levenshtein(input_data, expected):
+        if input_data == [
+            "amanaplanacanalpanama",
+            "docnoteidissentafastneverpreventsafatnessidietoncod",
+        ]:
+            pytest.skip("Takes too long to pass!")
+&gt;       assert levenshtein(*input_data) == expected
+E       AssertionError: assert 5 == 4
+E        +  where 5 = levenshtein(*['hello', 'olleh'])
+test_levenshtein.py:30: AssertionError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_levenshtein.py::test_levenshtein[input_data0-3] - AssertionError: assert 8 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data1-3] - AssertionError: assert 7 == 3
+FAILED test_levenshtein.py::test_levenshtein[input_data2-8] - AssertionError: assert 13 == 8
+FAILED test_levenshtein.py::test_levenshtein[input_data4-2] - AssertionError: assert 7 == 2
+FAILED test_levenshtein.py::test_levenshtein[input_data6-4] - AssertionError: assert 5 == 4
+================================================================================================ 5 failed, 1 passed, 1 skipped in 2.27s ================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 10 items
+test_longest_common_subsequence.py ...F.FFF..                                                                                                                                                                                     [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+_________________________________________________________________________________________ test_longest_common_subsequence[input_data3-tsitest] _________________________________________________________________________________________ 
+input_data = ['thisisatest', 'testing123testing'], expected = 'tsitest'
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_longest_common_subsequence(input_data, expected):
+&gt;       assert longest_common_subsequence(*input_data) == expected
+E       AssertionError: assert 'tiitest' == 'tsitest'
+E
+E         - tsitest
+E         ?  ^
+E         + tiitest
+E         ?  ^
+test_longest_common_subsequence.py:24: AssertionError
+__________________________________________________________________________________________ test_longest_common_subsequence[input_data5-bcba] ___________________________________________________________________________________________ 
+input_data = ['abcbdab', 'bdcaba'], expected = 'bcba'
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_longest_common_subsequence(input_data, expected):
+&gt;       assert longest_common_subsequence(*input_data) == expected
+E       AssertionError: assert 'bbdab' == 'bcba'
+E
+E         - bcba
+E         + bbdab
+test_longest_common_subsequence.py:24: AssertionError
+__________________________________________________________________________________________ test_longest_common_subsequence[input_data6-TAAG] ___________________________________________________________________________________________ 
+input_data = ['TATAGC', 'TAGCAG'], expected = 'TAAG'
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_longest_common_subsequence(input_data, expected):
+&gt;       assert longest_common_subsequence(*input_data) == expected
+E       AssertionError: assert 'TAAGC' == 'TAAG'
+E
+E         - TAAG
+E         + TAAGC
+E         ?     +
+test_longest_common_subsequence.py:24: AssertionError
+__________________________________________________________________________________________ test_longest_common_subsequence[input_data7-BCBA] ___________________________________________________________________________________________ 
+input_data = ['ABCBDAB', 'BDCABA'], expected = 'BCBA'
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_longest_common_subsequence(input_data, expected):
+&gt;       assert longest_common_subsequence(*input_data) == expected
+E       AssertionError: assert 'BBDAB' == 'BCBA'
+E
+E         - BCBA
+E         + BBDAB
+test_longest_common_subsequence.py:24: AssertionError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_longest_common_subsequence.py::test_longest_common_subsequence[input_data3-tsitest] - AssertionError: assert 'tiitest' == 'tsitest'
+FAILED test_longest_common_subsequence.py::test_longest_common_subsequence[input_data5-bcba] - AssertionError: assert 'bbdab' == 'bcba'
+FAILED test_longest_common_subsequence.py::test_longest_common_subsequence[input_data6-TAAG] - AssertionError: assert 'TAAGC' == 'TAAG'
+FAILED test_longest_common_subsequence.py::test_longest_common_subsequence[input_data7-BCBA] - AssertionError: assert 'BBDAB' == 'BCBA'
+===================================================================================================== 4 failed, 6 passed in 0.65s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_max_sublist_sum.py ......                                                                                                                                                                                                    [100%] 
+========================================================================================================== 6 passed in 0.04s ===========================================================================================================</t>
+  </si>
+  <si>
+    <t>FAILED test_mergesort.py::test_mergesort[input_data13-expected13] - RecursionError: maximum recursion depth exceeded
+==================================================================================================== 13 failed, 1 passed in 17.94s =====================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_rpn_eval.py F.F..F                                                                                                                                                                                                           [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+____________________________________________________________________________________________________ test_rpn_eval[input_data0-4.0] ____________________________________________________________________________________________________ 
+input_data = [[3.0, 5.0, '+', 2.0, '/']], expected = 4.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert 0.0 == 4.0
+E        +  where 0.0 = rpn_eval(*[[3.0, 5.0, '+', 2.0, '/']])
+test_rpn_eval.py:33: AssertionError
+____________________________________________________________________________________________________ test_rpn_eval[input_data2-8.0] ____________________________________________________________________________________________________ 
+input_data = [[7.0, 4.0, '+', 3.0, '-']], expected = 8.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -8.0 == 8.0
+E        +  where -8.0 = rpn_eval(*[[7.0, 4.0, '+', 3.0, '-']])
+test_rpn_eval.py:33: AssertionError
+___________________________________________________________________________________________________ test_rpn_eval[input_data5-14.0] ____________________________________________________________________________________________________ 
+input_data = [[5.0, 1.0, 2.0, '+', 4.0, '*', ...]], expected = 14.0
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_rpn_eval(input_data, expected):
+&gt;       assert rpn_eval(*input_data) == expected
+E       AssertionError: assert -14.0 == 14.0
+E        +  where -14.0 = rpn_eval(*[[5.0, 1.0, 2.0, '+', 4.0, '*', ...]])
+test_rpn_eval.py:33: AssertionError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_rpn_eval.py::test_rpn_eval[input_data0-4.0] - AssertionError: assert 0.0 == 4.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data2-8.0] - AssertionError: assert -8.0 == 8.0
+FAILED test_rpn_eval.py::test_rpn_eval[input_data5-14.0] - AssertionError: assert -14.0 == 14.0
+===================================================================================================== 3 failed, 3 passed in 0.18s ======================================================================================================</t>
+  </si>
+  <si>
+    <t>collected 5 items
+test_wrap.py FFFFF                                                                                                                                                                                                                [100%]
+=============================================================================================================== FAILURES =============================================================================================================== 
+___________________________________________________________________________________________________ test_wrap[input_data0-expected0] ___________________________________________________________________________________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 50]
+expected = ['The leaves did not stir on the trees, grasshoppers', ' chirruped, and the monotonous hollow sound of the', ' sea ris...So it must have', ' sounded when there was no Yalta, no Oreanda here;', ' so it sounds now, and it will sound as', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...ound as', ...] == ['The leaves ...ound as', ...]
+E
+E         Right contains one more item: ' dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:23: AssertionError
+___________________________________________________________________________________________________ test_wrap[input_data1-expected1] ___________________________________________________________________________________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 20]
+expected = ['The leaves did not', ' stir on the trees,', ' grasshoppers', ' chirruped, and the', ' monotonous hollow', ' sound of the sea', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...the sea', ...] == ['The leaves ...the sea', ...]
+E
+E         Right contains one more item: ' existence.'
+E         Use -v to get more diff
+test_wrap.py:23: AssertionError
+___________________________________________________________________________________________________ test_wrap[input_data2-expected2] ___________________________________________________________________________________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 80]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous', ' hollow sound of the sea rising ...his constancy, in this complete', ' indifference to the life and death of each of us, there lies hid, perhaps, a', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...haps, a', ...] == ['The leaves ...haps, a', ...]
+E
+E         Right contains one more item: ' of our existence.'
+E         Use -v to get more diff
+test_wrap.py:23: AssertionError
+___________________________________________________________________________________________________ test_wrap[input_data3-expected3] ___________________________________________________________________________________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...thing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 77]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the', ' monotonous hollow sound of the sea rising ...e. And in this constancy, in this', ' complete indifference to the life and death of each of us, there lies hid,', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...es hid,', ...] == ['The leaves ...es hid,', ...]
+E
+E         Right contains one more item: ' human dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:23: AssertionError
+___________________________________________________________________________________________________ test_wrap[input_data4-expected4] ___________________________________________________________________________________________________ 
+input_data = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...hing except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.', 140]
+expected = ['The leaves did not stir on the trees, grasshoppers chirruped, and the monotonous hollow sound of the sea rising up f...a, mountains, clouds, the open sky - Gurov thought how in reality everything is beautiful in this world when one', ...]
+    @pytest.mark.parametrize("input_data,expected", testdata)
+    def test_wrap(input_data, expected):
+&gt;       assert wrap(*input_data) == expected
+E       AssertionError: assert ['The leaves ...rld when one'] == ['The leaves ...hen one', ...]
+E
+E         Right contains one more item: ' reflects: everything except what we think or do ourselves when we forget our human dignity and the higher aims of our existence.'
+E         Use -v to get more diff
+test_wrap.py:23: AssertionError
+======================================================================================================= short test summary info ======================================================================================================== 
+FAILED test_wrap.py::test_wrap[input_data0-expected0] - AssertionError: assert ['The leaves ...ound as', ...] == ['The leaves ...ound as', ...]
+FAILED test_wrap.py::test_wrap[input_data1-expected1] - AssertionError: assert ['The leaves ...the sea', ...] == ['The leaves ...the sea', ...]
+FAILED test_wrap.py::test_wrap[input_data2-expected2] - AssertionError: assert ['The leaves ...haps, a', ...] == ['The leaves ...haps, a', ...]
+FAILED test_wrap.py::test_wrap[input_data3-expected3] - AssertionError: assert ['The leaves ...es hid,', ...] == ['The leaves ...es hid,', ...]
+FAILED test_wrap.py::test_wrap[input_data4-expected4] - AssertionError: assert ['The leaves ...rld when one'] == ['The leaves ...hen one', ...]
+========================================================================================================== 5 failed in 0.20s ===========================================================================================================</t>
   </si>
 </sst>
 </file>
@@ -3516,7 +4059,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3532,6 +4075,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3908,18 +4454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C1E7E-7B28-4889-9749-C78FEC8AD7D1}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E45"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="10" width="57.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.1328125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="19.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="57.1328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3950,8 +4499,11 @@
       <c r="J1" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="339.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="339.25" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3983,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4014,8 +4566,11 @@
       <c r="J3" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K3" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4047,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4111,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -4140,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -4172,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="354" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" ht="354" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4204,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -4236,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" ht="383.5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -4268,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="368.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" ht="368.75" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -4332,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -4363,8 +4918,11 @@
       <c r="J14" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K14" s="6" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -4396,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -4427,8 +4985,11 @@
       <c r="J16" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K16" s="6" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -4459,8 +5020,11 @@
       <c r="J17" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K17" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -4491,8 +5055,11 @@
       <c r="J18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K18" s="6" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -4524,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -4555,8 +5122,11 @@
       <c r="J20" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K20" s="6" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -4585,10 +5155,13 @@
         <v>272</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -4619,8 +5192,11 @@
       <c r="J22" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="6" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -4652,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -4684,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -4716,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
@@ -4743,7 +5319,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>131</v>
       </c>
@@ -4775,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>136</v>
       </c>
@@ -4807,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="383.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -4839,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="339.25" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="339.25" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
@@ -4871,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
@@ -4903,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
@@ -4934,8 +5510,11 @@
       <c r="J32" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K32" s="6" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>161</v>
       </c>
@@ -4967,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -4999,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
@@ -5031,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A36" s="1" t="s">
         <v>176</v>
       </c>
@@ -5063,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
@@ -5095,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A38" s="1" t="s">
         <v>186</v>
       </c>
@@ -5127,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>191</v>
       </c>
@@ -5159,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A40" s="1" t="s">
         <v>196</v>
       </c>
@@ -5191,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="398.25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" ht="398.25" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -5223,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="383.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -5254,8 +5833,11 @@
       <c r="J42" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K42" s="6" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C43" s="4" t="s">
         <v>294</v>
       </c>
@@ -5272,10 +5854,10 @@
       </c>
       <c r="J43" s="1">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C44" s="4" t="s">
         <v>295</v>
       </c>
@@ -5292,10 +5874,10 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C45" s="4" t="s">
         <v>296</v>
       </c>
@@ -5312,7 +5894,7 @@
       </c>
       <c r="J45" s="1">
         <f>J43/(J43+J44)*100</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
